--- a/ICS/MeadLevel.xlsx
+++ b/ICS/MeadLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\MeadPowellPlots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\ICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C0B5E-A830-415D-ACFA-9673DA1FEC25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB910DE6-8990-46D6-8C6F-E2F9E91770CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-1800" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MeadLevelEndOfMonth" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:M88"/>
+      <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4015,8 +4018,8 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
-        <v>2021</v>
+      <c r="A88" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B88" s="4">
         <v>1085.95</v>
@@ -4033,13 +4036,99 @@
       <c r="F88" s="4">
         <v>1073.5</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="6"/>
+      <c r="G88" s="4">
+        <v>1068.77</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1067.6500000000001</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1067.96</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1067.68</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1066.77</v>
+      </c>
+      <c r="L88" s="4">
+        <v>1064.97</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1066.3900000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1067.0899999999999</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1066.78</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1061.49</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1054.69</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1047.69</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1043.02</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1040.92</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1044.28</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1045.03</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1046.28</v>
+      </c>
+      <c r="L89" s="4">
+        <v>1043.02</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1044.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1046.97</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1047.02</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1046.03</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1049.69</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1054.28</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1056.3900000000001</v>
+      </c>
+      <c r="H90" s="4">
+        <v>1061.02</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
